--- a/db/dummydata/speedtrans/speedtrans__hubs.xlsx
+++ b/db/dummydata/speedtrans/speedtrans__hubs.xlsx
@@ -250,7 +250,7 @@
     <t>Ho Chi Minh</t>
   </si>
   <si>
-    <t>Vietnam</t>
+    <t>Viet Nam</t>
   </si>
   <si>
     <t>Khu phố 5, Đường A5, phường Tân Thuận Đông, Quận 7, Tân Thuận Đông, Quận 7, Hồ Chí Minh, Vietnam</t>
@@ -347,9 +347,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -450,695 +453,695 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5">
         <v>53.536975</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>9.918213</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="8">
+      <c r="D3" s="3"/>
+      <c r="E3" s="9">
         <v>22.5991992</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>120.280013</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8">
+      <c r="D4" s="3"/>
+      <c r="E4" s="9">
         <v>25.1388903</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>121.7465133</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8">
+      <c r="D5" s="3"/>
+      <c r="E5" s="9">
         <v>24.2881173</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>120.5018817</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8">
+      <c r="D6" s="3"/>
+      <c r="E6" s="9">
         <v>25.0236104</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>55.031523</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>21.4691431</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>39.1451453</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>-37.8386957</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="19">
         <v>144.906167</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>-33.8605435</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>151.2006623</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="19">
+      <c r="D10" s="3"/>
+      <c r="E10" s="20">
         <v>30.626539</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="20">
         <v>122.064958</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="20">
+      <c r="D11" s="3"/>
+      <c r="E11" s="21">
         <v>22.317131</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>114.208415</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>39.9387995</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>116.2573776</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>24.491403</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>118.0800037</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>38.983224</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>117.7406203</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>18.9505341</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>72.9447517</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>13.0815357</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>80.2898703</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>-6.0919229</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>106.8729119</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>35.592707</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>139.7725993</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>43.6349247</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>-79.3518244</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>1.3078172</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>103.7145289</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>35.1035522</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>129.033614</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="24" t="s">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>13.7037553</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>100.5666931</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>40.621658</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>-74.1352832</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="24" t="s">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>33.741756</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>-118.2612024</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>25.7660879</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>-80.2818162</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>10.7486912</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>106.7261318</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>19.1954627</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>-96.1618775</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>83</v>
       </c>
     </row>

--- a/db/dummydata/speedtrans/speedtrans__hubs.xlsx
+++ b/db/dummydata/speedtrans/speedtrans__hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t>STATUS</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Huli Qu, Xiamen Shi, Fujian Sheng, China, 361000</t>
   </si>
   <si>
-    <t>Tianjin</t>
+    <t>Xingang</t>
   </si>
   <si>
     <t>Binhai, Tianjin, China</t>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Zona Portuaria, 91899 Heroica Veracruz, Ver., Mexico</t>
+  </si>
+  <si>
+    <t>Peking</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
   </si>
 </sst>
 </file>
@@ -1156,6 +1162,29 @@
         <v>84</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="3">
+        <v>39.9063932</v>
+      </c>
+      <c r="F28" s="11">
+        <v>116.3575596</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I2"/>
